--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2394086.653807</v>
+        <v>-2396700.932423452</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>35.36864892363193</v>
+        <v>263.5072582506261</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.2146126744141</v>
       </c>
       <c r="H2" t="n">
-        <v>297.607293590734</v>
+        <v>297.6072935907341</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52.86845664851268</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>115.8619247783173</v>
+        <v>115.8619247783174</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>251.0186029205788</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,10 +753,10 @@
         <v>135.1561775373476</v>
       </c>
       <c r="H3" t="n">
-        <v>91.11034837618719</v>
+        <v>91.1103483761872</v>
       </c>
       <c r="I3" t="n">
-        <v>14.08691327674305</v>
+        <v>14.0869132767431</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>53.02159927470776</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>145.9230939674644</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>100.3033462869333</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>94.83943180792916</v>
+        <v>94.83943180792922</v>
       </c>
       <c r="S4" t="n">
-        <v>192.0586035981866</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>56.4721657743048</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2190043347733</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -908,10 +908,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>151.2796191729002</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,10 +947,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>28.07009764856047</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,22 +1054,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>57.68750238080805</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>77.83107808278533</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>146.5990350281149</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>117.4640413620747</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>130.3863236130824</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>82.13053486399664</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.21070476472222</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>152.2221689967094</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444145</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716056</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>65.06198119183935</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187874</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>108.2950343703263</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>108.2950343703269</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428118</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,16 +2296,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>178.2798710842933</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>33.82351723687588</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856559</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012174</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>211.147499124903</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,7 +2728,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
         <v>56.98118882652581</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352498</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,7 +2965,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
         <v>56.98118882652581</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1150.459761123536</v>
+        <v>1094.922808402982</v>
       </c>
       <c r="C2" t="n">
-        <v>781.4972441831244</v>
+        <v>1094.922808402982</v>
       </c>
       <c r="D2" t="n">
-        <v>781.4972441831244</v>
+        <v>1094.922808402982</v>
       </c>
       <c r="E2" t="n">
-        <v>395.7089915848801</v>
+        <v>1094.922808402982</v>
       </c>
       <c r="F2" t="n">
-        <v>359.9830835812115</v>
+        <v>828.753860675077</v>
       </c>
       <c r="G2" t="n">
-        <v>359.9830835812115</v>
+        <v>413.3855650443556</v>
       </c>
       <c r="H2" t="n">
-        <v>59.36965571178319</v>
+        <v>112.7721371749273</v>
       </c>
       <c r="I2" t="n">
-        <v>59.36965571178319</v>
+        <v>59.36965571178312</v>
       </c>
       <c r="J2" t="n">
-        <v>223.6389510734994</v>
+        <v>223.6389510734998</v>
       </c>
       <c r="K2" t="n">
-        <v>520.5745606447442</v>
+        <v>520.5745606447445</v>
       </c>
       <c r="L2" t="n">
-        <v>925.8512030185029</v>
+        <v>925.851203018502</v>
       </c>
       <c r="M2" t="n">
-        <v>1408.468993552358</v>
+        <v>1408.468993552356</v>
       </c>
       <c r="N2" t="n">
-        <v>1903.509852877249</v>
+        <v>1903.509852877247</v>
       </c>
       <c r="O2" t="n">
-        <v>2357.627637384226</v>
+        <v>2357.627637384224</v>
       </c>
       <c r="P2" t="n">
-        <v>2710.705659215711</v>
+        <v>2710.705659215709</v>
       </c>
       <c r="Q2" t="n">
-        <v>2927.679802719474</v>
+        <v>2927.679802719471</v>
       </c>
       <c r="R2" t="n">
-        <v>2968.482785589159</v>
+        <v>2968.482785589156</v>
       </c>
       <c r="S2" t="n">
-        <v>2851.450538338333</v>
+        <v>2851.450538338331</v>
       </c>
       <c r="T2" t="n">
-        <v>2851.450538338333</v>
+        <v>2851.450538338331</v>
       </c>
       <c r="U2" t="n">
-        <v>2597.896393974112</v>
+        <v>2597.89639397411</v>
       </c>
       <c r="V2" t="n">
-        <v>2266.833506630542</v>
+        <v>2597.89639397411</v>
       </c>
       <c r="W2" t="n">
-        <v>1914.064851360428</v>
+        <v>2245.127738703995</v>
       </c>
       <c r="X2" t="n">
-        <v>1540.599093099348</v>
+        <v>1871.661980442916</v>
       </c>
       <c r="Y2" t="n">
-        <v>1150.459761123536</v>
+        <v>1481.522648467104</v>
       </c>
     </row>
     <row r="3">
@@ -4404,25 +4404,25 @@
         <v>73.59886104182667</v>
       </c>
       <c r="I3" t="n">
-        <v>59.36965571178319</v>
+        <v>59.36965571178312</v>
       </c>
       <c r="J3" t="n">
-        <v>138.3894757148953</v>
+        <v>138.3894757148951</v>
       </c>
       <c r="K3" t="n">
-        <v>351.6017589168904</v>
+        <v>591.3495759479388</v>
       </c>
       <c r="L3" t="n">
-        <v>924.3623438981792</v>
+        <v>924.3623438981811</v>
       </c>
       <c r="M3" t="n">
-        <v>1332.329405070861</v>
+        <v>1332.329405070862</v>
       </c>
       <c r="N3" t="n">
-        <v>1765.502785324652</v>
+        <v>1765.502785324653</v>
       </c>
       <c r="O3" t="n">
-        <v>2139.552005769182</v>
+        <v>2139.552005769183</v>
       </c>
       <c r="P3" t="n">
         <v>2420.426415694429</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>508.53035020879</v>
+        <v>356.3762426220291</v>
       </c>
       <c r="C4" t="n">
-        <v>508.53035020879</v>
+        <v>356.3762426220291</v>
       </c>
       <c r="D4" t="n">
-        <v>508.53035020879</v>
+        <v>206.2596032096933</v>
       </c>
       <c r="E4" t="n">
-        <v>454.9731792242368</v>
+        <v>206.2596032096933</v>
       </c>
       <c r="F4" t="n">
-        <v>308.0832317263264</v>
+        <v>59.36965571178312</v>
       </c>
       <c r="G4" t="n">
-        <v>308.0832317263264</v>
+        <v>59.36965571178312</v>
       </c>
       <c r="H4" t="n">
-        <v>160.686167112726</v>
+        <v>59.36965571178312</v>
       </c>
       <c r="I4" t="n">
-        <v>59.36965571178319</v>
+        <v>59.36965571178312</v>
       </c>
       <c r="J4" t="n">
-        <v>95.29667538945992</v>
+        <v>95.29667538945982</v>
       </c>
       <c r="K4" t="n">
-        <v>284.1726417778211</v>
+        <v>284.1726417778208</v>
       </c>
       <c r="L4" t="n">
-        <v>581.395285638628</v>
+        <v>581.3952856386276</v>
       </c>
       <c r="M4" t="n">
-        <v>905.1640129945961</v>
+        <v>905.1640129945954</v>
       </c>
       <c r="N4" t="n">
-        <v>1226.66886009458</v>
+        <v>1226.668860094579</v>
       </c>
       <c r="O4" t="n">
-        <v>1507.614327944345</v>
+        <v>1507.614327944344</v>
       </c>
       <c r="P4" t="n">
-        <v>1724.491028290282</v>
+        <v>1724.49102829028</v>
       </c>
       <c r="Q4" t="n">
-        <v>1791.210133852898</v>
+        <v>1791.210133852896</v>
       </c>
       <c r="R4" t="n">
-        <v>1695.412727986303</v>
+        <v>1695.412727986301</v>
       </c>
       <c r="S4" t="n">
-        <v>1501.414138493185</v>
+        <v>1695.412727986301</v>
       </c>
       <c r="T4" t="n">
-        <v>1501.414138493185</v>
+        <v>1638.370136295084</v>
       </c>
       <c r="U4" t="n">
-        <v>1501.414138493185</v>
+        <v>1349.260030906424</v>
       </c>
       <c r="V4" t="n">
-        <v>1246.729650287298</v>
+        <v>1094.575542700537</v>
       </c>
       <c r="W4" t="n">
-        <v>957.3124802503374</v>
+        <v>805.1583726635765</v>
       </c>
       <c r="X4" t="n">
-        <v>729.3229293523201</v>
+        <v>577.1688217655592</v>
       </c>
       <c r="Y4" t="n">
-        <v>508.53035020879</v>
+        <v>356.3762426220291</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221567</v>
+        <v>1537.086630593157</v>
       </c>
       <c r="C5" t="n">
-        <v>1012.316163281155</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D5" t="n">
-        <v>654.050464674405</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E5" t="n">
-        <v>268.2622120761608</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>261.3167113269573</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2980.983771532044</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2649.920884188473</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2297.152228918359</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261501</v>
+        <v>1923.686470657279</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285689</v>
+        <v>1923.686470657279</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,13 +4647,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4668,16 +4668,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4689,7 +4689,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>212.7293032143256</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>212.7293032143256</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143256</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1869.024343663434</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1677.33845949026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1455.571844059787</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1166.46897718543</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V7" t="n">
-        <v>911.7844889795433</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W7" t="n">
-        <v>622.3673189425826</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X7" t="n">
-        <v>394.3777680445653</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>394.3777680445653</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1619.798686923957</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C8" t="n">
-        <v>1250.836169983545</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>892.5704713767946</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,10 +4811,10 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3067.235319774533</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3067.235319774533</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2736.172432430963</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W8" t="n">
-        <v>2383.403777160848</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X8" t="n">
-        <v>2009.938018899768</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="Y8" t="n">
-        <v>1619.798686923957</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>810.3754302374103</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="C10" t="n">
-        <v>641.4392473095035</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="D10" t="n">
-        <v>491.3226078971677</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E10" t="n">
-        <v>491.3226078971677</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>344.4326603992573</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
         <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1652.64852768906</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1363.545660814704</v>
       </c>
       <c r="V10" t="n">
-        <v>1259.157560278958</v>
+        <v>1108.861172608817</v>
       </c>
       <c r="W10" t="n">
-        <v>1259.157560278958</v>
+        <v>1108.861172608817</v>
       </c>
       <c r="X10" t="n">
-        <v>1031.16800938094</v>
+        <v>880.8716217107993</v>
       </c>
       <c r="Y10" t="n">
-        <v>810.3754302374103</v>
+        <v>660.0790425672692</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,37 +5051,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>658.9255961109956</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="C13" t="n">
-        <v>489.9894131830887</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="D13" t="n">
-        <v>489.9894131830887</v>
+        <v>766.1780053015061</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>618.2649117191129</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>471.3749642212027</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
         <v>826.1405381797745</v>
@@ -5209,40 +5209,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138418</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362694</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,16 +5349,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5367,13 +5367,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036841</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270442</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2131.343372566517</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1842.268145910715</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1587.583657704828</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1298.166487667867</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1070.17693676985</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>849.3843576263199</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.853600740071</v>
+        <v>513.8536007400716</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121641</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121641</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E19" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,7 +5695,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138414</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703113</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>139.234765840794</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356196</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232839</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408908</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429804</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270438</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5923,16 +5923,16 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487567</v>
@@ -5944,16 +5944,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>984.9192356072707</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>815.9830526793638</v>
+        <v>929.7309773356196</v>
       </c>
       <c r="D25" t="n">
-        <v>665.8664132670281</v>
+        <v>779.6143379232839</v>
       </c>
       <c r="E25" t="n">
         <v>631.7012443408908</v>
@@ -6136,22 +6136,22 @@
         <v>484.8112968429804</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6160,7 +6160,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648818</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648818</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750801</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072707</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2978.493192213311</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C28" t="n">
-        <v>2834.08695624706</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D28" t="n">
-        <v>2708.50026379638</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E28" t="n">
-        <v>2585.117117175644</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F28" t="n">
-        <v>2462.75711663939</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G28" t="n">
-        <v>2320.090964315926</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>2202.90908011978</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>2145.35232372935</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2249.630143176793</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>2535.361206719451</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>2949.801601912511</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M28" t="n">
-        <v>3395.853105660665</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
-        <v>3837.304778337792</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>4230.875860063897</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P28" t="n">
-        <v>4547.593116654574</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R28" t="n">
-        <v>4648.317395612652</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>4489.992508229213</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
-        <v>4294.920990213809</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>4030.375710519664</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>3800.221169275433</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
-        <v>3535.333946200129</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>3331.874342263768</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
-        <v>3135.611710081894</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="29">
@@ -6455,40 +6455,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>172.349019141113</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2737913123336</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6686,37 +6686,37 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>139.234765840794</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,16 +6856,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
@@ -6889,16 +6889,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2389.155899672379</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7093,25 +7093,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954154</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7190,10 +7190,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637304</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319315</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656809</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150015</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942647</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345472</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384015</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7348,34 +7348,34 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111722</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7436,7 +7436,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590557</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118212</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289433</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>3212.252935505191</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3809.631423131743</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3869.022106831311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4420.931837070598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7600,16 +7600,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.067041434951</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>923.067041434951</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1550.665004989557</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2102.574735228844</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2526.197884723912</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2526.197884723912</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7807,7 +7807,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8058,10 +8058,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>242.1695121525746</v>
       </c>
       <c r="L3" t="n">
-        <v>242.1695121525718</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.872575263447061</v>
+        <v>9.872575263447175</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>371.5073968180795</v>
+        <v>143.3687874910853</v>
       </c>
       <c r="G2" t="n">
-        <v>411.2146126744141</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52.86845664851256</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22708,10 +22708,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>93.4123633718614</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>166.1571872936354</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>145.9230939674644</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>100.3033462869334</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,13 +22753,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>192.0586035981867</v>
       </c>
       <c r="T4" t="n">
-        <v>220.1102960603998</v>
+        <v>163.638130286095</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2190043347733</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-9.766525984932414e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>143.6212754172154</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>13.30196929555941</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>152.3434691354489</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>38.13892827624286</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194274</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>108.2431272522977</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>112.6104454096933</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>6.257951202385243</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1121427.816881862</v>
+        <v>1121427.816881861</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1384348.098773257</v>
+        <v>1384348.098773258</v>
       </c>
     </row>
     <row r="6">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32460.91116143663</v>
+        <v>32460.91116143662</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321415</v>
       </c>
       <c r="D2" t="n">
         <v>41052.08849321416</v>
@@ -26323,19 +26323,19 @@
         <v>40357.32998450031</v>
       </c>
       <c r="F2" t="n">
-        <v>40357.32998450029</v>
+        <v>40357.32998450031</v>
       </c>
       <c r="G2" t="n">
         <v>40357.32998450031</v>
       </c>
       <c r="H2" t="n">
-        <v>40357.32998450029</v>
+        <v>40357.32998450031</v>
       </c>
       <c r="I2" t="n">
-        <v>40357.32998450029</v>
+        <v>40357.32998450031</v>
       </c>
       <c r="J2" t="n">
-        <v>41052.08849321421</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="K2" t="n">
         <v>41052.08849321419</v>
@@ -26344,16 +26344,16 @@
         <v>41052.08849321419</v>
       </c>
       <c r="M2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="N2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.08849321421</v>
+        <v>41052.0884932142</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1228620.061871474</v>
+        <v>1228620.061871473</v>
       </c>
       <c r="C3" t="n">
-        <v>95186.49343973015</v>
+        <v>95186.49343973122</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.861628258540616e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>213599.1454818043</v>
+        <v>213599.1454818041</v>
       </c>
       <c r="K3" t="n">
-        <v>22978.01038359955</v>
+        <v>22978.01038359988</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363182</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18331.20513627359</v>
+        <v>18331.20513627365</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818177</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
         <v>20987.7234099239</v>
       </c>
       <c r="K4" t="n">
-        <v>20987.72340992391</v>
+        <v>20987.72340992384</v>
       </c>
       <c r="L4" t="n">
+        <v>20987.7234099239</v>
+      </c>
+      <c r="M4" t="n">
+        <v>20987.7234099239</v>
+      </c>
+      <c r="N4" t="n">
         <v>20987.72340992393</v>
       </c>
-      <c r="M4" t="n">
-        <v>20987.72340992392</v>
-      </c>
-      <c r="N4" t="n">
-        <v>20987.72340992391</v>
-      </c>
       <c r="O4" t="n">
-        <v>20987.72340992393</v>
+        <v>20987.7234099239</v>
       </c>
       <c r="P4" t="n">
         <v>20987.72340992391</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100917.4173209746</v>
+        <v>100917.4173209745</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1315407.773167286</v>
+        <v>-1315837.332033874</v>
       </c>
       <c r="C6" t="n">
-        <v>-254252.244426091</v>
+        <v>-254252.2444260921</v>
       </c>
       <c r="D6" t="n">
-        <v>-159065.7509863609</v>
+        <v>-159065.7509863608</v>
       </c>
       <c r="E6" t="n">
-        <v>-399174.5257935926</v>
+        <v>-399209.2637190284</v>
       </c>
       <c r="F6" t="n">
-        <v>-73762.06398623726</v>
+        <v>-73796.80191167291</v>
       </c>
       <c r="G6" t="n">
-        <v>-73762.06398623729</v>
+        <v>-73796.80191167288</v>
       </c>
       <c r="H6" t="n">
-        <v>-73762.06398623726</v>
+        <v>-73796.80191167296</v>
       </c>
       <c r="I6" t="n">
-        <v>-73762.06398623723</v>
+        <v>-73796.80191167297</v>
       </c>
       <c r="J6" t="n">
-        <v>-296698.8962524294</v>
+        <v>-296698.8962524292</v>
       </c>
       <c r="K6" t="n">
-        <v>-106077.7611542247</v>
+        <v>-106077.761154225</v>
       </c>
       <c r="L6" t="n">
-        <v>-83099.75077062513</v>
+        <v>-83099.75077062509</v>
       </c>
       <c r="M6" t="n">
         <v>-168154.778706137</v>
       </c>
       <c r="N6" t="n">
-        <v>-83099.75077062512</v>
+        <v>-83099.75077062515</v>
       </c>
       <c r="O6" t="n">
         <v>-102527.4687642569</v>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1016.921054129329</v>
+        <v>1016.921054129328</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972899</v>
+        <v>742.1206963972891</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26926,10 +26926,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1016.921054129329</v>
+        <v>1016.921054129328</v>
       </c>
       <c r="C3" t="n">
-        <v>72.85564646396915</v>
+        <v>72.85564646396995</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972899</v>
+        <v>742.1206963972891</v>
       </c>
       <c r="C4" t="n">
-        <v>89.28075900500278</v>
+        <v>89.2807590050038</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972899</v>
+        <v>742.1206963972891</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500278</v>
+        <v>89.28075900500403</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972899</v>
+        <v>742.1206963972891</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500278</v>
+        <v>89.2807590050038</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>259.6421064805533</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>222.9250743103415</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27774,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>31.24465028923928</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>147.8785773062518</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>57.31893511150531</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>252.2670593163943</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>35.63948464594586</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>137.4184144121726</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.088124840720918</v>
+        <v>4.088124840720915</v>
       </c>
       <c r="H2" t="n">
-        <v>41.86750852503312</v>
+        <v>41.86750852503308</v>
       </c>
       <c r="I2" t="n">
-        <v>157.6074329218933</v>
+        <v>157.6074329218932</v>
       </c>
       <c r="J2" t="n">
-        <v>346.9744857001373</v>
+        <v>346.9744857001371</v>
       </c>
       <c r="K2" t="n">
-        <v>520.0248102078539</v>
+        <v>520.0248102078535</v>
       </c>
       <c r="L2" t="n">
-        <v>645.1367608020669</v>
+        <v>645.1367608020663</v>
       </c>
       <c r="M2" t="n">
-        <v>717.8389509382374</v>
+        <v>717.8389509382368</v>
       </c>
       <c r="N2" t="n">
-        <v>729.4543356419358</v>
+        <v>729.4543356419352</v>
       </c>
       <c r="O2" t="n">
-        <v>688.8030442570172</v>
+        <v>688.8030442570166</v>
       </c>
       <c r="P2" t="n">
-        <v>587.8774622517194</v>
+        <v>587.877462251719</v>
       </c>
       <c r="Q2" t="n">
-        <v>441.4714913934014</v>
+        <v>441.471491393401</v>
       </c>
       <c r="R2" t="n">
-        <v>256.8006720259356</v>
+        <v>256.8006720259354</v>
       </c>
       <c r="S2" t="n">
-        <v>93.15814480792801</v>
+        <v>93.15814480792794</v>
       </c>
       <c r="T2" t="n">
-        <v>17.89576649025583</v>
+        <v>17.89576649025581</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3270499872576734</v>
+        <v>0.3270499872576731</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.187339625863086</v>
+        <v>2.187339625863084</v>
       </c>
       <c r="H3" t="n">
-        <v>21.12509586030928</v>
+        <v>21.12509586030926</v>
       </c>
       <c r="I3" t="n">
-        <v>75.30971957467203</v>
+        <v>75.30971957467197</v>
       </c>
       <c r="J3" t="n">
-        <v>206.6556266698102</v>
+        <v>206.6556266698101</v>
       </c>
       <c r="K3" t="n">
-        <v>353.2073816026369</v>
+        <v>353.2073816026366</v>
       </c>
       <c r="L3" t="n">
-        <v>474.9309130629476</v>
+        <v>474.9309130629472</v>
       </c>
       <c r="M3" t="n">
-        <v>554.2219745004843</v>
+        <v>554.2219745004838</v>
       </c>
       <c r="N3" t="n">
-        <v>568.8905810265575</v>
+        <v>568.890581026557</v>
       </c>
       <c r="O3" t="n">
-        <v>520.4237398429595</v>
+        <v>520.4237398429592</v>
       </c>
       <c r="P3" t="n">
-        <v>417.6859325913466</v>
+        <v>417.6859325913463</v>
       </c>
       <c r="Q3" t="n">
-        <v>279.2119845224528</v>
+        <v>279.2119845224526</v>
       </c>
       <c r="R3" t="n">
-        <v>135.8069287005169</v>
+        <v>135.8069287005168</v>
       </c>
       <c r="S3" t="n">
-        <v>40.62887419092176</v>
+        <v>40.62887419092173</v>
       </c>
       <c r="T3" t="n">
-        <v>8.816513667404275</v>
+        <v>8.816513667404267</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1439039227541504</v>
+        <v>0.1439039227541503</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,46 +31197,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.83379206482338</v>
+        <v>1.833792064823379</v>
       </c>
       <c r="H4" t="n">
-        <v>16.30407853997515</v>
+        <v>16.30407853997514</v>
       </c>
       <c r="I4" t="n">
-        <v>55.14712864032494</v>
+        <v>55.1471286403249</v>
       </c>
       <c r="J4" t="n">
-        <v>129.649098983013</v>
+        <v>129.6490989830129</v>
       </c>
       <c r="K4" t="n">
-        <v>213.0532962585709</v>
+        <v>213.0532962585707</v>
       </c>
       <c r="L4" t="n">
-        <v>272.6348675283779</v>
+        <v>272.6348675283776</v>
       </c>
       <c r="M4" t="n">
-        <v>287.4552415795413</v>
+        <v>287.4552415795411</v>
       </c>
       <c r="N4" t="n">
-        <v>280.6201984288362</v>
+        <v>280.620198428836</v>
       </c>
       <c r="O4" t="n">
-        <v>259.1981729443084</v>
+        <v>259.1981729443082</v>
       </c>
       <c r="P4" t="n">
-        <v>221.7888148219113</v>
+        <v>221.7888148219111</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.5550791735287</v>
+        <v>153.5550791735286</v>
       </c>
       <c r="R4" t="n">
-        <v>82.45395956924033</v>
+        <v>82.45395956924027</v>
       </c>
       <c r="S4" t="n">
-        <v>31.95799443878563</v>
+        <v>31.9579944387856</v>
       </c>
       <c r="T4" t="n">
-        <v>7.835293367881714</v>
+        <v>7.835293367881707</v>
       </c>
       <c r="U4" t="n">
         <v>0.100025021717639</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>340.4395077511227</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>639.4703354763103</v>
+        <v>403.852496713802</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>271.1474903386692</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>170.9292585737929</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,19 +32789,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>699.0496615458086</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,16 +32810,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>461.1007071927452</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>204.3779992811859</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>172.7144981745678</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>268.5330199802463</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>233.9389431948339</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,46 +34044,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34208,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>191.3323016788565</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460043</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,40 +34442,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>172.8142548092797</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>165.9285811734511</v>
+        <v>165.9285811734508</v>
       </c>
       <c r="K2" t="n">
-        <v>299.9349591628733</v>
+        <v>299.934959162873</v>
       </c>
       <c r="L2" t="n">
-        <v>409.3703458320796</v>
+        <v>409.3703458320791</v>
       </c>
       <c r="M2" t="n">
-        <v>487.4927177109647</v>
+        <v>487.4927177109641</v>
       </c>
       <c r="N2" t="n">
-        <v>500.0412720453449</v>
+        <v>500.0412720453443</v>
       </c>
       <c r="O2" t="n">
-        <v>458.7048328353304</v>
+        <v>458.7048328353299</v>
       </c>
       <c r="P2" t="n">
-        <v>356.6444664964499</v>
+        <v>356.6444664964494</v>
       </c>
       <c r="Q2" t="n">
-        <v>219.1658015189519</v>
+        <v>219.1658015189515</v>
       </c>
       <c r="R2" t="n">
-        <v>41.2151342118035</v>
+        <v>41.21513421180327</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79.81800000314354</v>
+        <v>79.81800000314337</v>
       </c>
       <c r="K3" t="n">
-        <v>215.3659426282779</v>
+        <v>457.5354547808522</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5460454356452</v>
+        <v>336.3765332830731</v>
       </c>
       <c r="M3" t="n">
-        <v>412.087940578466</v>
+        <v>412.0879405784655</v>
       </c>
       <c r="N3" t="n">
-        <v>437.5488689432242</v>
+        <v>437.5488689432237</v>
       </c>
       <c r="O3" t="n">
-        <v>377.8274953985151</v>
+        <v>377.8274953985148</v>
       </c>
       <c r="P3" t="n">
-        <v>283.7115251770163</v>
+        <v>283.711525177016</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.2302104364313</v>
+        <v>139.2302104364311</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>36.2899188663402</v>
+        <v>36.28991886634009</v>
       </c>
       <c r="K4" t="n">
-        <v>190.783804432688</v>
+        <v>190.7838044326878</v>
       </c>
       <c r="L4" t="n">
-        <v>300.224892788694</v>
+        <v>300.2248927886938</v>
       </c>
       <c r="M4" t="n">
-        <v>327.0391185413819</v>
+        <v>327.0391185413816</v>
       </c>
       <c r="N4" t="n">
-        <v>324.7523708080648</v>
+        <v>324.7523708080646</v>
       </c>
       <c r="O4" t="n">
-        <v>283.7833008583481</v>
+        <v>283.7833008583479</v>
       </c>
       <c r="P4" t="n">
-        <v>219.0673740868048</v>
+        <v>219.0673740868046</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.39303592183431</v>
+        <v>67.3930359218342</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>508.128623392977</v>
+        <v>272.5107846304687</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>128.5512458942248</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>44.09163190712619</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295337</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>556.4534171013642</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>318.5044627483008</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36753,19 +36753,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>77.54037261451921</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>45.87687150790109</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.5512458942248</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>91.80490927281556</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>59.99058959552318</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,19 +37944,19 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243176</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>27.13475084531573</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,19 +38181,19 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
